--- a/DataPool/Folha/Processamentos/Complemento de Férias/Complemento de Férias.xlsx
+++ b/DataPool/Folha/Processamentos/Complemento de Férias/Complemento de Férias.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9795"/>
+    <workbookView windowWidth="24000" windowHeight="9795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datas" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,42 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>DATAPAGTO</t>
+  </si>
+  <si>
+    <t>30/06/2022</t>
+  </si>
+  <si>
+    <t>ESTAB</t>
+  </si>
+  <si>
+    <t>IDPROCESSO</t>
+  </si>
+  <si>
+    <t>COMPIRRF</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -34,28 +63,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -64,7 +71,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,14 +155,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -133,6 +170,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -141,45 +186,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,13 +223,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,169 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,6 +414,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -399,15 +461,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,31 +484,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,148 +517,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -955,17 +984,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="11.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -974,17 +1021,48 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="2" width="9.14285714285714" style="1"/>
+    <col min="3" max="4" width="11.4285714285714" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.14285714285714" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/DataPool/Folha/Processamentos/Complemento de Férias/Complemento de Férias.xlsx
+++ b/DataPool/Folha/Processamentos/Complemento de Férias/Complemento de Férias.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9795" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Datas" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>DATA</t>
   </si>
@@ -38,10 +38,55 @@
     <t>COMPIRRF</t>
   </si>
   <si>
+    <t>VLRARRED</t>
+  </si>
+  <si>
+    <t>EMABERTO</t>
+  </si>
+  <si>
+    <t>IDEDMDEV</t>
+  </si>
+  <si>
+    <t>EMPREGADO</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>IDEMPREGADO</t>
+  </si>
+  <si>
+    <t>IDEVENTO</t>
+  </si>
+  <si>
+    <t>COMPLEMENTAFERIAS</t>
+  </si>
+  <si>
+    <t>IDSISTEMAEXP</t>
+  </si>
+  <si>
     <t>1111</t>
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>INFORME</t>
+  </si>
+  <si>
+    <t>REFERENCIA</t>
+  </si>
+  <si>
+    <t>PROPBASEHORAS</t>
+  </si>
+  <si>
+    <t>00100</t>
   </si>
 </sst>
 </file>
@@ -49,10 +94,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -63,6 +108,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -70,6 +131,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,7 +147,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,6 +215,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -101,7 +231,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,77 +239,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,21 +247,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,103 +268,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,79 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,26 +462,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,16 +495,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -490,16 +535,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,49 +562,46 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,97 +610,100 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,20 +1066,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="9.14285714285714" style="1"/>
     <col min="3" max="4" width="11.4285714285714" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1047,14 +1092,17 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="2" spans="3:4">
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1071,17 +1119,28 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="16384" width="9.14285714285714" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1090,17 +1149,65 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="9.14285714285714" style="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.4285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5714285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.8571428571429" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1109,17 +1216,34 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="9.14285714285714" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/DataPool/Folha/Processamentos/Complemento de Férias/Complemento de Férias.xlsx
+++ b/DataPool/Folha/Processamentos/Complemento de Férias/Complemento de Férias.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>DATA</t>
   </si>
@@ -50,43 +50,43 @@
     <t>EMPREGADO</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>IDEMPREGADO</t>
+  </si>
+  <si>
+    <t>IDEVENTO</t>
+  </si>
+  <si>
+    <t>COMPLEMENTAFERIAS</t>
+  </si>
+  <si>
+    <t>IDSISTEMAEXP</t>
+  </si>
+  <si>
+    <t>INFORME</t>
+  </si>
+  <si>
+    <t>REFERENCIA</t>
+  </si>
+  <si>
+    <t>PROPBASEHORAS</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>IDEMPREGADO</t>
-  </si>
-  <si>
-    <t>IDEVENTO</t>
-  </si>
-  <si>
-    <t>COMPLEMENTAFERIAS</t>
-  </si>
-  <si>
-    <t>IDSISTEMAEXP</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>00100</t>
   </si>
   <si>
     <t>24</t>
-  </si>
-  <si>
-    <t>INFORME</t>
-  </si>
-  <si>
-    <t>REFERENCIA</t>
-  </si>
-  <si>
-    <t>PROPBASEHORAS</t>
-  </si>
-  <si>
-    <t>00100</t>
   </si>
 </sst>
 </file>
@@ -94,9 +94,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -108,17 +108,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,6 +134,83 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,6 +222,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -147,84 +239,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,21 +247,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,13 +268,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,25 +358,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,25 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,13 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,79 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,21 +459,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -486,11 +471,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,26 +501,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,6 +542,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -562,148 +562,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1149,13 +1149,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="9.14285714285714" style="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
@@ -1164,10 +1164,12 @@
     <col min="5" max="5" width="15.2857142857143" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.7142857142857" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.8571428571429" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="1"/>
+    <col min="8" max="9" width="9.14285714285714" style="1"/>
+    <col min="10" max="10" width="17.8571428571429" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1189,22 +1191,39 @@
       <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="5:5">
+      <c r="E3" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1219,7 +1238,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A1" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1229,18 +1248,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/DataPool/Folha/Processamentos/Complemento de Férias/Complemento de Férias.xlsx
+++ b/DataPool/Folha/Processamentos/Complemento de Férias/Complemento de Férias.xlsx
@@ -11,14 +11,13 @@
     <sheet name="Processos" sheetId="2" r:id="rId2"/>
     <sheet name="Empregado" sheetId="5" r:id="rId3"/>
     <sheet name="Movimento" sheetId="3" r:id="rId4"/>
-    <sheet name="Parametros" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>DATA</t>
   </si>
@@ -94,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -109,7 +108,104 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,97 +219,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -232,21 +237,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,187 +267,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,41 +461,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,16 +501,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,49 +561,49 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,97 +612,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1152,7 +1151,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1230,40 +1229,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="16384" width="9.14285714285714" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/DataPool/Folha/Processamentos/Complemento de Férias/Complemento de Férias.xlsx
+++ b/DataPool/Folha/Processamentos/Complemento de Férias/Complemento de Férias.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Datas" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>DATA</t>
   </si>
@@ -25,7 +25,7 @@
     <t>DATAPAGTO</t>
   </si>
   <si>
-    <t>30/06/2022</t>
+    <t>28/02/2022</t>
   </si>
   <si>
     <t>ESTAB</t>
@@ -77,15 +77,6 @@
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>00100</t>
-  </si>
-  <si>
-    <t>24</t>
   </si>
 </sst>
 </file>
@@ -93,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -107,17 +98,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,14 +144,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,47 +157,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,9 +180,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +204,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -229,23 +229,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,187 +258,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +449,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,36 +487,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,11 +515,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,151 +540,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -712,54 +703,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
-    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
-    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
-    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
-    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
-    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
-    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
-    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
-    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
-    <cellStyle name="Observação" xfId="13" builtinId="10"/>
-    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
-    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
-    <cellStyle name="Título" xfId="16" builtinId="15"/>
-    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
-    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
-    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
-    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
-    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
-    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
-    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
-    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
-    <cellStyle name="Saída" xfId="27" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
-    <cellStyle name="Total" xfId="29" builtinId="25"/>
-    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
-    <cellStyle name="Bom" xfId="31" builtinId="26"/>
-    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
-    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
-    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
-    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
-    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
-    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
-    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
-    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
-    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
-    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
-    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
-    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
-    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1031,7 +1022,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1068,7 +1059,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1120,7 +1111,7 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1148,13 +1139,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="9.14285714285714" style="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
@@ -1200,7 +1191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1212,17 +1203,6 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="5:5">
-      <c r="E3" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/DataPool/Folha/Processamentos/Complemento de Férias/Complemento de Férias.xlsx
+++ b/DataPool/Folha/Processamentos/Complemento de Férias/Complemento de Férias.xlsx
@@ -86,8 +86,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -98,41 +98,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,30 +134,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,17 +172,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,7 +228,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,23 +236,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,13 +244,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,73 +258,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,109 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,6 +449,74 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,219 +549,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -703,54 +703,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
+    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
+    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
+    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
+    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
+    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
+    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
+    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
+    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
+    <cellStyle name="Observação" xfId="13" builtinId="10"/>
+    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
+    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
+    <cellStyle name="Título" xfId="16" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
+    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
+    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
+    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
+    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
+    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
+    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
+    <cellStyle name="Saída" xfId="27" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
+    <cellStyle name="Bom" xfId="31" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
+    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
+    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
+    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
+    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
+    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
+    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
+    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
+    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>

--- a/DataPool/Folha/Processamentos/Complemento de Férias/Complemento de Férias.xlsx
+++ b/DataPool/Folha/Processamentos/Complemento de Férias/Complemento de Férias.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>DATA</t>
   </si>
@@ -25,58 +25,61 @@
     <t>DATAPAGTO</t>
   </si>
   <si>
+    <t>31/01/2022</t>
+  </si>
+  <si>
+    <t>ESTAB</t>
+  </si>
+  <si>
+    <t>IDPROCESSO</t>
+  </si>
+  <si>
+    <t>COMPIRRF</t>
+  </si>
+  <si>
+    <t>VLRARRED</t>
+  </si>
+  <si>
+    <t>EMABERTO</t>
+  </si>
+  <si>
+    <t>IDEDMDEV</t>
+  </si>
+  <si>
+    <t>EMPREGADO</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>IDEMPREGADO</t>
+  </si>
+  <si>
+    <t>IDEVENTO</t>
+  </si>
+  <si>
+    <t>COMPLEMENTAFERIAS</t>
+  </si>
+  <si>
+    <t>IDSISTEMAEXP</t>
+  </si>
+  <si>
+    <t>INFORME</t>
+  </si>
+  <si>
+    <t>REFERENCIA</t>
+  </si>
+  <si>
+    <t>PROPBASEHORAS</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>28/02/2022</t>
-  </si>
-  <si>
-    <t>ESTAB</t>
-  </si>
-  <si>
-    <t>IDPROCESSO</t>
-  </si>
-  <si>
-    <t>COMPIRRF</t>
-  </si>
-  <si>
-    <t>VLRARRED</t>
-  </si>
-  <si>
-    <t>EMABERTO</t>
-  </si>
-  <si>
-    <t>IDEDMDEV</t>
-  </si>
-  <si>
-    <t>EMPREGADO</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>IDEMPREGADO</t>
-  </si>
-  <si>
-    <t>IDEVENTO</t>
-  </si>
-  <si>
-    <t>COMPLEMENTAFERIAS</t>
-  </si>
-  <si>
-    <t>IDSISTEMAEXP</t>
-  </si>
-  <si>
-    <t>INFORME</t>
-  </si>
-  <si>
-    <t>REFERENCIA</t>
-  </si>
-  <si>
-    <t>PROPBASEHORAS</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>12</t>
   </si>
 </sst>
 </file>
@@ -85,9 +88,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -98,35 +101,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -134,6 +108,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -143,9 +138,79 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,92 +223,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,13 +261,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,169 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,21 +452,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -479,17 +467,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,17 +514,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,151 +537,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,7 +1025,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1199,7 +1202,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>

--- a/DataPool/Folha/Processamentos/Complemento de Férias/Complemento de Férias.xlsx
+++ b/DataPool/Folha/Processamentos/Complemento de Férias/Complemento de Férias.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Datas" sheetId="1" r:id="rId1"/>
@@ -87,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -109,31 +109,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,13 +137,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -162,14 +148,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +200,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -229,24 +223,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,187 +261,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,11 +455,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,26 +507,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,7 +518,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,166 +552,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,8 +1024,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1114,13 +1114,14 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="13.1428571428571" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
